--- a/LED_poi/calculs.xlsx
+++ b/LED_poi/calculs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/xavier_bourlot_nxp_com/Documents/Documents/Kicad/PCB_Kicad/LED_poi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="847" documentId="8_{31CC32D1-003C-4A03-AD44-944C3B1C5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33201B58-4D19-421B-A8A1-EB67EEF5EC20}"/>
+  <xr:revisionPtr revIDLastSave="854" documentId="8_{31CC32D1-003C-4A03-AD44-944C3B1C5770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3758986-A6B8-4309-8D33-56BF30C02C46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AEA96F3E-DB8C-4166-97F9-954DB1EEDBA7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AEA96F3E-DB8C-4166-97F9-954DB1EEDBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="215">
   <si>
     <t>tours/s</t>
   </si>
@@ -684,6 +684,12 @@
   <si>
     <t>(a pleine puissance (blanc, x2 sur utilisation moyenne)</t>
   </si>
+  <si>
+    <t>Ctrl bare PCB</t>
+  </si>
+  <si>
+    <t>5pcs 4 layers 38x20mm</t>
+  </si>
 </sst>
 </file>
 
@@ -855,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -894,9 +900,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -932,6 +935,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13363,7 +13373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F67716-1BC1-4CED-984E-4E78CE122380}">
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -14125,14 +14135,14 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="2:13" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14297,10 +14307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66757DEF-9004-4754-A0A6-77C84FF4AF91}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14310,8 +14320,8 @@
     <col min="4" max="4" width="57.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -14338,20 +14348,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="29">
+      <c r="E2" s="26"/>
+      <c r="F2" s="28">
         <v>7</v>
       </c>
       <c r="G2" s="21">
@@ -14363,41 +14373,41 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32">
+      <c r="E3" s="29"/>
+      <c r="F3" s="31">
         <v>3</v>
       </c>
       <c r="G3" s="21">
         <v>0.01</v>
       </c>
       <c r="H3" s="21">
-        <f t="shared" ref="H3:H34" si="0">G3*F3</f>
+        <f t="shared" ref="H3:H35" si="0">G3*F3</f>
         <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="32">
+      <c r="E4" s="29"/>
+      <c r="F4" s="31">
         <v>2</v>
       </c>
       <c r="G4" s="21">
@@ -14409,18 +14419,18 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32">
+      <c r="E5" s="29"/>
+      <c r="F5" s="31">
         <v>2</v>
       </c>
       <c r="G5" s="21">
@@ -14432,18 +14442,18 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32">
+      <c r="E6" s="29"/>
+      <c r="F6" s="31">
         <v>1</v>
       </c>
       <c r="G6" s="21">
@@ -14455,20 +14465,20 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>3</v>
       </c>
       <c r="G7" s="22">
@@ -14480,20 +14490,20 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>1</v>
       </c>
       <c r="G8" s="22">
@@ -14505,20 +14515,20 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>1</v>
       </c>
       <c r="G9" s="22">
@@ -14530,20 +14540,20 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>1</v>
       </c>
       <c r="G10" s="22">
@@ -14555,20 +14565,20 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>1</v>
       </c>
       <c r="G11" s="22">
@@ -14580,20 +14590,20 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>1</v>
       </c>
       <c r="G12" s="22">
@@ -14605,20 +14615,20 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>1</v>
       </c>
       <c r="G13" s="22">
@@ -14630,20 +14640,20 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>1</v>
       </c>
       <c r="G14" s="22">
@@ -14655,20 +14665,20 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>1</v>
       </c>
       <c r="G15" s="22">
@@ -14680,20 +14690,20 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>1</v>
       </c>
       <c r="G16" s="22">
@@ -14705,20 +14715,20 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>1</v>
       </c>
       <c r="G17" s="22">
@@ -14730,18 +14740,18 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="32">
+      <c r="E18" s="29"/>
+      <c r="F18" s="31">
         <v>3</v>
       </c>
       <c r="G18" s="21">
@@ -14753,18 +14763,18 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32">
+      <c r="E19" s="29"/>
+      <c r="F19" s="31">
         <v>3</v>
       </c>
       <c r="G19" s="21">
@@ -14776,18 +14786,18 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="32">
+      <c r="E20" s="29"/>
+      <c r="F20" s="31">
         <v>1</v>
       </c>
       <c r="G20" s="21">
@@ -14799,18 +14809,18 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="30">
         <v>22</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="32">
+      <c r="E21" s="29"/>
+      <c r="F21" s="31">
         <v>2</v>
       </c>
       <c r="G21" s="21">
@@ -14822,18 +14832,18 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="30">
         <v>10</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="32">
+      <c r="E22" s="29"/>
+      <c r="F22" s="31">
         <v>1</v>
       </c>
       <c r="G22" s="21">
@@ -14845,18 +14855,18 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="32">
+      <c r="E23" s="29"/>
+      <c r="F23" s="31">
         <v>1</v>
       </c>
       <c r="G23" s="21">
@@ -14868,18 +14878,18 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="32">
+      <c r="E24" s="29"/>
+      <c r="F24" s="31">
         <v>1</v>
       </c>
       <c r="G24" s="21">
@@ -14891,18 +14901,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="32">
+      <c r="E25" s="29"/>
+      <c r="F25" s="31">
         <v>1</v>
       </c>
       <c r="G25" s="21">
@@ -14914,18 +14924,18 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="40"/>
+      <c r="B26" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="32">
+      <c r="E26" s="29"/>
+      <c r="F26" s="31">
         <v>1</v>
       </c>
       <c r="G26" s="21">
@@ -14937,18 +14947,18 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="32">
+      <c r="E27" s="29"/>
+      <c r="F27" s="31">
         <v>1</v>
       </c>
       <c r="G27" s="21">
@@ -14960,18 +14970,18 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="32">
+      <c r="E28" s="29"/>
+      <c r="F28" s="31">
         <v>1</v>
       </c>
       <c r="G28" s="21">
@@ -14983,18 +14993,18 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="33" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="35">
+      <c r="E29" s="32"/>
+      <c r="F29" s="34">
         <v>1</v>
       </c>
       <c r="G29" s="21">
@@ -15010,20 +15020,20 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="29">
+      <c r="E31" s="26"/>
+      <c r="F31" s="28">
         <v>0.25</v>
       </c>
       <c r="G31" s="21">
@@ -15035,96 +15045,118 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="31">
-        <v>26650</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="32">
-        <v>1</v>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="31">
+        <f>1/5</f>
+        <v>0.2</v>
       </c>
       <c r="G32" s="21">
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H32" s="21">
         <f t="shared" si="0"/>
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="30">
+        <v>26650</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+      <c r="G33" s="21">
         <v>3.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="G33" s="21">
-        <v>12.67</v>
       </c>
       <c r="H33" s="21">
         <f t="shared" si="0"/>
-        <v>3.1675</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="35">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="A34" s="43"/>
+      <c r="B34" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="21">
+        <v>12.67</v>
       </c>
       <c r="H34" s="21">
         <f t="shared" si="0"/>
+        <v>3.1675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="34">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E37" s="1" t="s">
+      <c r="H35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F37" s="3">
-        <f>SUM(F2:F36)</f>
-        <v>47.5</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="F38" s="3">
+        <f>SUM(F2:F37)</f>
+        <v>47.7</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H37" s="21">
-        <f>SUM(H2:H36)</f>
-        <v>18.892500000000002</v>
+      <c r="H38" s="21">
+        <f>SUM(H2:H37)</f>
+        <v>19.772500000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A29"/>
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A31:A35"/>
   </mergeCells>
-  <conditionalFormatting sqref="H2:H34">
+  <conditionalFormatting sqref="H2:H35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -15152,7 +15184,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H34</xm:sqref>
+          <xm:sqref>H2:H35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15260,11 +15292,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="H5" t="s">
         <v>91</v>
       </c>
